--- a/changes/9mm-ammo.xlsx
+++ b/changes/9mm-ammo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB69F17C-6B15-442B-A36A-AED845FCCFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DF1813-E52D-4BF8-9139-5C2582ABC637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:AH16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,7 +1189,7 @@
         <v>951</v>
       </c>
       <c r="AB3">
-        <f>(W3-AA3)/W3</f>
+        <f t="shared" ref="AB3:AB8" si="0">(W3-AA3)/W3</f>
         <v>0.12752293577981652</v>
       </c>
       <c r="AC3">
@@ -1208,7 +1208,7 @@
         <v>249</v>
       </c>
       <c r="AH3">
-        <f>(AC3-AG3)/AC3</f>
+        <f t="shared" ref="AH3:AH8" si="1">(AC3-AG3)/AC3</f>
         <v>0.23853211009174313</v>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
         <v>973</v>
       </c>
       <c r="AB4">
-        <f>(W4-AA4)/W4</f>
+        <f t="shared" si="0"/>
         <v>0.2153225806451613</v>
       </c>
       <c r="AC4">
@@ -1291,7 +1291,7 @@
         <v>244</v>
       </c>
       <c r="AH4">
-        <f>(AC4-AG4)/AC4</f>
+        <f t="shared" si="1"/>
         <v>0.27164179104477609</v>
       </c>
     </row>
@@ -1347,14 +1347,14 @@
         <v>1100</v>
       </c>
       <c r="AB5">
-        <f>(W5-AA5)/W5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC5">
         <v>350</v>
       </c>
       <c r="AH5">
-        <f>(AC5-AG5)/AC5</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
         <v>961</v>
       </c>
       <c r="AB6">
-        <f>(W6-AA6)/W6</f>
+        <f t="shared" si="0"/>
         <v>0.18559322033898304</v>
       </c>
       <c r="AC6">
@@ -1443,7 +1443,7 @@
         <v>236</v>
       </c>
       <c r="AH6">
-        <f>(AC6-AG6)/AC6</f>
+        <f t="shared" si="1"/>
         <v>0.33707865168539325</v>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
         <v>973</v>
       </c>
       <c r="AB7">
-        <f>(W7-AA7)/W7</f>
+        <f t="shared" si="0"/>
         <v>0.2153225806451613</v>
       </c>
       <c r="AC7">
@@ -1532,7 +1532,7 @@
         <v>210</v>
       </c>
       <c r="AH7">
-        <f>(AC7-AG7)/AC7</f>
+        <f t="shared" si="1"/>
         <v>0.38416422287390029</v>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
         <v>1000</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" ref="N8" si="0">C8-D8*20-E8*0.8-F8*0.6-H8*5+I8*10+J8/300</f>
+        <f t="shared" ref="N8" si="2">C8-D8*20-E8*0.8-F8*0.6-H8*5+I8*10+J8/300</f>
         <v>23.333333333333332</v>
       </c>
       <c r="P8">
@@ -1595,7 +1595,7 @@
         <v>850</v>
       </c>
       <c r="AB8">
-        <f>(W8-AA8)/W8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC8">
@@ -1605,7 +1605,7 @@
         <v>236</v>
       </c>
       <c r="AH8">
-        <f>(AC8-AG8)/AC8</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1650,17 +1650,17 @@
         <v>0.1</v>
       </c>
       <c r="E11" s="1">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="F11" s="1">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1">
         <v>-0.05</v>
       </c>
       <c r="I11" s="1">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="J11" s="1">
         <v>-150</v>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="N11" s="1">
         <f>C11-D11*20-E11*0.8-F11*0.6-H11*5+I11*10+J11/300</f>
-        <v>5.15</v>
+        <v>7.15</v>
       </c>
       <c r="Q11">
         <v>50</v>
@@ -1698,16 +1698,18 @@
         <v>0.1</v>
       </c>
       <c r="E12" s="1">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="F12" s="1">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1">
         <v>0.1</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>0.04</v>
+      </c>
       <c r="J12" s="1">
         <v>0</v>
       </c>
@@ -1718,7 +1720,7 @@
       </c>
       <c r="N12" s="1">
         <f>C12-D12*20-E12*0.8-F12*0.6-H12*5+I12*10+J12/300</f>
-        <v>13.5</v>
+        <v>10.1</v>
       </c>
       <c r="Q12">
         <v>70</v>
@@ -1744,17 +1746,17 @@
         <v>0.09</v>
       </c>
       <c r="E13" s="1">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F13" s="1">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1">
         <v>0.05</v>
       </c>
       <c r="I13" s="1">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="J13" s="1">
         <v>-200</v>
@@ -1766,7 +1768,7 @@
       </c>
       <c r="N13" s="1">
         <f>C13-D13*20-E13*0.8-F13*0.6-H13*5+I13*10+J13/300</f>
-        <v>6.4833333333333334</v>
+        <v>6.2833333333333332</v>
       </c>
       <c r="Q13">
         <v>50</v>
@@ -1903,7 +1905,7 @@
         <v>1000</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" ref="N16" si="1">C16-D16*20-E16*0.8-F16*0.6-H16*5+I16*10+J16/300</f>
+        <f t="shared" ref="N16" si="3">C16-D16*20-E16*0.8-F16*0.6-H16*5+I16*10+J16/300</f>
         <v>22.6</v>
       </c>
       <c r="Q16">

--- a/changes/9mm-ammo.xlsx
+++ b/changes/9mm-ammo.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DF1813-E52D-4BF8-9139-5C2582ABC637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FCD16EE3-12E8-4A26-93AE-97067FD73A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="m4-barrels" sheetId="1" r:id="rId1"/>
+    <sheet name="9mm-ammo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>new</t>
   </si>
@@ -170,7 +170,7 @@
     <t>pen</t>
   </si>
   <si>
-    <t>game stats</t>
+    <t>damage</t>
   </si>
 </sst>
 </file>
@@ -703,7 +703,60 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1013,22 +1066,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH16"/>
+  <dimension ref="A1:AJ16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="14" width="6.7109375" customWidth="1"/>
     <col min="15" max="15" width="8.7109375" customWidth="1"/>
-    <col min="16" max="33" width="6.7109375" customWidth="1"/>
-    <col min="34" max="45" width="8.7109375" customWidth="1"/>
+    <col min="16" max="35" width="6.7109375" customWidth="1"/>
+    <col min="36" max="47" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -1045,14 +1098,14 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>45</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1102,352 +1155,382 @@
         <v>40</v>
       </c>
       <c r="R2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" t="s">
         <v>39</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>37</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>38</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>28</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>42</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1">
-        <v>-0.05</v>
+        <v>0.4</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1">
-        <v>10</v>
+        <v>-150</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N3" s="1">
-        <f>C3-D3*20-E3*0.8-F3*0.6-H3*5+I3*10+J3/300</f>
-        <v>-3.1166666666666667</v>
+        <f>C3-D3*20-E3*0.8-F3*0.6-H3*5+(U3-22)*2.5+P3/300+S3*5</f>
+        <v>28.466666666666669</v>
       </c>
       <c r="P3">
-        <v>1260</v>
+        <v>1100</v>
       </c>
       <c r="Q3">
+        <v>40</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="S3">
+        <v>0.02</v>
+      </c>
+      <c r="T3">
         <v>50</v>
       </c>
-      <c r="R3">
-        <v>35</v>
-      </c>
-      <c r="S3">
-        <v>22</v>
-      </c>
-      <c r="T3">
-        <v>7</v>
-      </c>
-      <c r="V3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W3">
-        <v>1090</v>
-      </c>
-      <c r="X3">
-        <v>1047</v>
+      <c r="U3">
+        <v>39</v>
+      </c>
+      <c r="V3">
+        <v>27</v>
+      </c>
+      <c r="X3" t="s">
+        <v>31</v>
       </c>
       <c r="Y3">
-        <v>1011</v>
+        <v>1180</v>
       </c>
       <c r="Z3">
-        <v>979</v>
+        <v>1106</v>
       </c>
       <c r="AA3">
-        <v>951</v>
+        <v>1048</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB8" si="0">(W3-AA3)/W3</f>
-        <v>0.12752293577981652</v>
+        <v>1001</v>
       </c>
       <c r="AC3">
-        <v>327</v>
+        <v>961</v>
       </c>
       <c r="AD3">
-        <v>302</v>
+        <f>(Y3-AC3)/Y3</f>
+        <v>0.18559322033898304</v>
       </c>
       <c r="AE3">
-        <v>281</v>
+        <v>356</v>
       </c>
       <c r="AF3">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="AG3">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH8" si="1">(AC3-AG3)/AC3</f>
-        <v>0.23853211009174313</v>
+        <v>256</v>
+      </c>
+      <c r="AI3">
+        <v>236</v>
+      </c>
+      <c r="AJ3">
+        <f>(AE3-AI3)/AE3</f>
+        <v>0.33707865168539325</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D4" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
         <v>0.1</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="N4" s="1">
-        <f>C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
-        <v>-2</v>
+        <f>C4-D4*20-E4*0.8-F4*0.6-H4*5+(U4-22)*2.5+P4/300+S4*5</f>
+        <v>5.7666666666666675</v>
       </c>
       <c r="P4">
-        <v>1260</v>
+        <v>1250</v>
       </c>
       <c r="Q4">
-        <v>50</v>
-      </c>
-      <c r="R4">
-        <v>39</v>
+        <v>60</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.5</v>
       </c>
       <c r="S4">
-        <v>25</v>
+        <v>0.1</v>
       </c>
       <c r="T4">
-        <v>10</v>
-      </c>
-      <c r="V4" t="s">
-        <v>34</v>
-      </c>
-      <c r="W4">
-        <v>1240</v>
-      </c>
-      <c r="X4">
-        <v>1147</v>
+        <v>37</v>
+      </c>
+      <c r="U4">
+        <v>24</v>
+      </c>
+      <c r="V4">
+        <v>9</v>
+      </c>
+      <c r="X4" t="s">
+        <v>36</v>
       </c>
       <c r="Y4">
-        <v>1075</v>
-      </c>
-      <c r="Z4">
-        <v>1019</v>
-      </c>
-      <c r="AA4">
-        <v>973</v>
-      </c>
-      <c r="AB4">
-        <f t="shared" si="0"/>
-        <v>0.2153225806451613</v>
-      </c>
-      <c r="AC4">
-        <v>335</v>
+        <v>1100</v>
       </c>
       <c r="AD4">
-        <v>305</v>
+        <f>(Y4-AC4)/Y4</f>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>280</v>
-      </c>
-      <c r="AF4">
-        <v>261</v>
-      </c>
-      <c r="AG4">
-        <v>244</v>
-      </c>
-      <c r="AH4">
-        <f t="shared" si="1"/>
-        <v>0.27164179104477609</v>
+        <v>350</v>
+      </c>
+      <c r="AJ4">
+        <f>(AE4-AI4)/AE4</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <f>C5-D5*20-E5*0.8-F5*0.6-H5*5+I5*10+J5/300</f>
-        <v>-3.9</v>
+        <f>C5-D5*20-E5*0.8-F5*0.6-H5*5+(U5-22)*2.5+P5/300+S5*5</f>
+        <v>10.7</v>
       </c>
       <c r="P5">
-        <v>1250</v>
+        <v>1260</v>
       </c>
       <c r="Q5">
-        <v>60</v>
-      </c>
-      <c r="R5">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.5</v>
       </c>
       <c r="S5">
-        <v>24</v>
+        <v>0.2</v>
       </c>
       <c r="T5">
-        <v>9</v>
-      </c>
-      <c r="V5" t="s">
-        <v>36</v>
-      </c>
-      <c r="W5">
-        <v>1100</v>
+        <v>39</v>
+      </c>
+      <c r="U5">
+        <v>25</v>
+      </c>
+      <c r="V5">
+        <v>10</v>
+      </c>
+      <c r="X5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5">
+        <v>1240</v>
+      </c>
+      <c r="Z5">
+        <v>1147</v>
+      </c>
+      <c r="AA5">
+        <v>1075</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1019</v>
       </c>
       <c r="AC5">
-        <v>350</v>
+        <v>973</v>
+      </c>
+      <c r="AD5">
+        <f>(Y5-AC5)/Y5</f>
+        <v>0.2153225806451613</v>
+      </c>
+      <c r="AE5">
+        <v>335</v>
+      </c>
+      <c r="AF5">
+        <v>305</v>
+      </c>
+      <c r="AG5">
+        <v>280</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>261</v>
+      </c>
+      <c r="AI5">
+        <v>244</v>
+      </c>
+      <c r="AJ5">
+        <f>(AE5-AI5)/AE5</f>
+        <v>0.27164179104477609</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
-        <v>0.4</v>
+        <v>-0.05</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
-        <v>-150</v>
+        <v>10</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="N6" s="1">
-        <f>C6-D6*20-E6*0.8-F6*0.6-H6*5+I6*10+J6/300</f>
-        <v>-18.3</v>
+        <f>C6-D6*20-E6*0.8-F6*0.6-H6*5+(U6-22)*2.5+P6/300+S6*5</f>
+        <v>1.5000000000000002</v>
       </c>
       <c r="P6">
-        <v>1100</v>
+        <v>1260</v>
       </c>
       <c r="Q6">
-        <v>40</v>
-      </c>
-      <c r="R6">
         <v>50</v>
       </c>
+      <c r="R6" s="2">
+        <v>0.1</v>
+      </c>
       <c r="S6">
-        <v>39</v>
+        <v>0.09</v>
       </c>
       <c r="T6">
-        <v>27</v>
-      </c>
-      <c r="V6" t="s">
-        <v>31</v>
-      </c>
-      <c r="W6">
-        <v>1180</v>
-      </c>
-      <c r="X6">
-        <v>1106</v>
+        <v>35</v>
+      </c>
+      <c r="U6">
+        <v>22</v>
+      </c>
+      <c r="V6">
+        <v>7</v>
+      </c>
+      <c r="X6" t="s">
+        <v>29</v>
       </c>
       <c r="Y6">
-        <v>1048</v>
+        <v>1090</v>
       </c>
       <c r="Z6">
-        <v>1001</v>
+        <v>1047</v>
       </c>
       <c r="AA6">
-        <v>961</v>
+        <v>1011</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="0"/>
-        <v>0.18559322033898304</v>
+        <v>979</v>
       </c>
       <c r="AC6">
-        <v>356</v>
+        <v>951</v>
       </c>
       <c r="AD6">
-        <v>312</v>
+        <f t="shared" ref="AD6:AD8" si="0">(Y6-AC6)/Y6</f>
+        <v>0.12752293577981652</v>
       </c>
       <c r="AE6">
-        <v>280</v>
+        <v>327</v>
       </c>
       <c r="AF6">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="AG6">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="1"/>
-        <v>0.33707865168539325</v>
+        <v>264</v>
+      </c>
+      <c r="AI6">
+        <v>249</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" ref="AJ6:AJ8" si="1">(AE6-AI6)/AE6</f>
+        <v>0.23853211009174313</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>18</v>
@@ -1476,8 +1559,8 @@
         <v>600</v>
       </c>
       <c r="N7" s="1">
-        <f>C7-D7*20-E7*0.8-F7*0.6-H7*5+I7*10+J7/300</f>
-        <v>10.266666666666666</v>
+        <f t="shared" ref="N7:N8" si="2">C7-D7*20-E7*0.8-F7*0.6-H7*5+(U7-22)*2.5+P7/300+S7*5</f>
+        <v>19.983333333333334</v>
       </c>
       <c r="P7">
         <v>1150</v>
@@ -1485,58 +1568,64 @@
       <c r="Q7">
         <v>60</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S7">
+        <v>0.11</v>
+      </c>
+      <c r="T7">
         <v>35</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>24</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>11</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>33</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>1240</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>1147</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>1075</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>1019</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>973</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <f t="shared" si="0"/>
         <v>0.2153225806451613</v>
       </c>
-      <c r="AC7">
+      <c r="AE7">
         <v>341</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <v>292</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <v>257</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>230</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <v>210</v>
       </c>
-      <c r="AH7">
+      <c r="AJ7">
         <f t="shared" si="1"/>
         <v>0.38416422287390029</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>24</v>
@@ -1567,8 +1656,8 @@
         <v>1000</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" ref="N8" si="2">C8-D8*20-E8*0.8-F8*0.6-H8*5+I8*10+J8/300</f>
-        <v>23.333333333333332</v>
+        <f t="shared" si="2"/>
+        <v>27.6</v>
       </c>
       <c r="P8">
         <v>1050</v>
@@ -1576,56 +1665,92 @@
       <c r="Q8">
         <v>50</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="S8">
+        <v>0.02</v>
+      </c>
+      <c r="T8">
         <v>35</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>22</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>7</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
         <v>35</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>950</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>850</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <v>295</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>236</v>
       </c>
-      <c r="AH8">
+      <c r="AJ8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" t="s">
+        <v>30</v>
+      </c>
       <c r="Q10" t="s">
         <v>40</v>
       </c>
@@ -1635,198 +1760,225 @@
       <c r="S10" t="s">
         <v>44</v>
       </c>
+      <c r="U10" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D11" s="1">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E11" s="1">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1">
-        <v>-0.05</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.1</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="I11" s="1"/>
       <c r="J11" s="1">
-        <v>-150</v>
+        <v>-100</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N11" s="1">
-        <f>C11-D11*20-E11*0.8-F11*0.6-H11*5+I11*10+J11/300</f>
-        <v>7.15</v>
+        <f>C11-D11*20-E11*0.8-F11*0.6-H11*5+(U11-22)*2.5+P11/300+S11*5</f>
+        <v>30.783333333333331</v>
+      </c>
+      <c r="P11">
+        <v>1150</v>
       </c>
       <c r="Q11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R11" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="S11">
-        <v>0.18</v>
+        <v>0.05</v>
+      </c>
+      <c r="U11">
+        <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E12" s="1">
         <v>-8</v>
       </c>
       <c r="F12" s="1">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I12" s="1">
-        <v>0.04</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="N12" s="1">
-        <f>C12-D12*20-E12*0.8-F12*0.6-H12*5+I12*10+J12/300</f>
-        <v>10.1</v>
+        <f t="shared" ref="N12:N16" si="3">C12-D12*20-E12*0.8-F12*0.6-H12*5+(U12-22)*2.5+P12/300+S12*5</f>
+        <v>24.716666666666669</v>
+      </c>
+      <c r="P12">
+        <v>1100</v>
       </c>
       <c r="Q12">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R12" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="S12">
-        <v>0.21</v>
+        <v>0.12</v>
+      </c>
+      <c r="U12">
+        <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E13" s="1">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="F13" s="1">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I13" s="1">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="J13" s="1">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <f>C13-D13*20-E13*0.8-F13*0.6-H13*5+I13*10+J13/300</f>
-        <v>6.2833333333333332</v>
+        <f t="shared" si="3"/>
+        <v>23.866666666666667</v>
+      </c>
+      <c r="P13">
+        <v>1250</v>
       </c>
       <c r="Q13">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R13" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="S13">
-        <v>0.15</v>
+        <v>0.2</v>
+      </c>
+      <c r="U13">
+        <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E14" s="1">
-        <v>6</v>
+        <v>-11</v>
       </c>
       <c r="F14" s="1">
-        <v>6</v>
+        <v>-14</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="I14" s="1"/>
+        <v>-0.05</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.1</v>
+      </c>
       <c r="J14" s="1">
-        <v>-100</v>
+        <v>-150</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="N14" s="1">
-        <f>C14-D14*20-E14*0.8-F14*0.6-H14*5+I14*10+J14/300</f>
-        <v>-13.533333333333333</v>
+        <f t="shared" si="3"/>
+        <v>25.016666666666669</v>
+      </c>
+      <c r="P14">
+        <v>1100</v>
       </c>
       <c r="Q14">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R14" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="S14">
-        <v>0.05</v>
+        <v>0.18</v>
+      </c>
+      <c r="U14">
+        <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1837,19 +1989,21 @@
         <v>2</v>
       </c>
       <c r="D15" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E15" s="1">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="F15" s="1">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1">
         <v>-0.2</v>
       </c>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1">
+        <v>-0.04</v>
+      </c>
       <c r="J15" s="1">
         <v>0</v>
       </c>
@@ -1859,8 +2013,11 @@
         <v>600</v>
       </c>
       <c r="N15" s="1">
-        <f>C15-D15*20-E15*0.8-F15*0.6-H15*5+I15*10+J15/300</f>
-        <v>15.8</v>
+        <f t="shared" si="3"/>
+        <v>24.966666666666672</v>
+      </c>
+      <c r="P15">
+        <v>1250</v>
       </c>
       <c r="Q15">
         <v>70</v>
@@ -1869,10 +2026,13 @@
         <v>0.2</v>
       </c>
       <c r="S15">
-        <v>0.01</v>
+        <v>0.02</v>
+      </c>
+      <c r="U15">
+        <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1895,18 +2055,23 @@
       <c r="H16" s="1">
         <v>0.2</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1">
+        <v>-0.04</v>
+      </c>
       <c r="J16" s="1">
         <v>-300</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" ref="N16" si="3">C16-D16*20-E16*0.8-F16*0.6-H16*5+I16*10+J16/300</f>
-        <v>22.6</v>
+        <f t="shared" si="3"/>
+        <v>24.666666666666668</v>
+      </c>
+      <c r="P16">
+        <v>950</v>
       </c>
       <c r="Q16">
         <v>80</v>
@@ -1915,10 +2080,38 @@
         <v>0.1</v>
       </c>
       <c r="S16">
-        <v>0.1</v>
+        <v>0.08</v>
+      </c>
+      <c r="U16">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C15:U16">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>C7&lt;&gt;C15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:U14">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>C3&lt;&gt;C14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:U11">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>C6&lt;&gt;C11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:U13">
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>C4&lt;&gt;C13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:U12">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>C5&lt;&gt;C12</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/changes/9mm-ammo.xlsx
+++ b/changes/9mm-ammo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FCD16EE3-12E8-4A26-93AE-97067FD73A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834AC9C1-1E36-4216-AC3E-A7034A1F51B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -703,56 +703,11 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1069,7 +1024,7 @@
   <dimension ref="A1:AJ16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2087,29 +2042,9 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C15:U16">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>C7&lt;&gt;C15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:U14">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>C3&lt;&gt;C14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:U11">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>C6&lt;&gt;C11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:U13">
-    <cfRule type="expression" dxfId="1" priority="6">
-      <formula>C4&lt;&gt;C13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:U12">
-    <cfRule type="expression" dxfId="0" priority="7">
-      <formula>C5&lt;&gt;C12</formula>
+  <conditionalFormatting sqref="C11:U16">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>C11&lt;&gt;C3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/changes/9mm-ammo.xlsx
+++ b/changes/9mm-ammo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834AC9C1-1E36-4216-AC3E-A7034A1F51B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA975239-31A9-4883-85E6-2D9A5682A5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:AJ16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,11 +1732,11 @@
       <c r="D11" s="1">
         <v>0.08</v>
       </c>
-      <c r="E11" s="1">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1">
-        <v>8</v>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="N11" s="1">
         <f>C11-D11*20-E11*0.8-F11*0.6-H11*5+(U11-22)*2.5+P11/300+S11*5</f>
-        <v>30.783333333333331</v>
+        <v>27.983333333333331</v>
       </c>
       <c r="P11">
         <v>1150</v>
@@ -1784,11 +1784,11 @@
       <c r="D12" s="1">
         <v>0.09</v>
       </c>
-      <c r="E12" s="1">
-        <v>-8</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12">
         <v>-6</v>
+      </c>
+      <c r="F12">
+        <v>-4</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1">
@@ -1806,8 +1806,8 @@
         <v>750</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" ref="N12:N16" si="3">C12-D12*20-E12*0.8-F12*0.6-H12*5+(U12-22)*2.5+P12/300+S12*5</f>
-        <v>24.716666666666669</v>
+        <f>C12-D12*20-E12*0.8-F12*0.6-H12*5+(U12-22)*2.5+P12/300+S12*5</f>
+        <v>21.916666666666668</v>
       </c>
       <c r="P12">
         <v>1100</v>
@@ -1838,11 +1838,11 @@
       <c r="D13" s="1">
         <v>0.08</v>
       </c>
-      <c r="E13" s="1">
-        <v>-7</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-7</v>
+      <c r="E13">
+        <v>-5</v>
+      </c>
+      <c r="F13">
+        <v>-5</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1">
@@ -1860,8 +1860,8 @@
         <v>0</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="3"/>
-        <v>23.866666666666667</v>
+        <f>C13-D13*20-E13*0.8-F13*0.6-H13*5+(U13-22)*2.5+P13/300+S13*5</f>
+        <v>21.066666666666666</v>
       </c>
       <c r="P13">
         <v>1250</v>
@@ -1892,11 +1892,11 @@
       <c r="D14" s="1">
         <v>0.1</v>
       </c>
-      <c r="E14" s="1">
-        <v>-11</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-14</v>
+      <c r="E14">
+        <v>-9</v>
+      </c>
+      <c r="F14">
+        <v>-12</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1">
@@ -1914,8 +1914,8 @@
         <v>1500</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="3"/>
-        <v>25.016666666666669</v>
+        <f>C14-D14*20-E14*0.8-F14*0.6-H14*5+(U14-22)*2.5+P14/300+S14*5</f>
+        <v>22.216666666666665</v>
       </c>
       <c r="P14">
         <v>1100</v>
@@ -1946,11 +1946,11 @@
       <c r="D15" s="1">
         <v>0.06</v>
       </c>
-      <c r="E15" s="1">
-        <v>-13</v>
-      </c>
-      <c r="F15" s="1">
-        <v>-10</v>
+      <c r="E15">
+        <v>-11</v>
+      </c>
+      <c r="F15">
+        <v>-8</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1">
@@ -1968,8 +1968,8 @@
         <v>600</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="3"/>
-        <v>24.966666666666672</v>
+        <f>C15-D15*20-E15*0.8-F15*0.6-H15*5+(U15-22)*2.5+P15/300+S15*5</f>
+        <v>22.166666666666671</v>
       </c>
       <c r="P15">
         <v>1250</v>
@@ -2000,11 +2000,11 @@
       <c r="D16" s="1">
         <v>0.12</v>
       </c>
-      <c r="E16" s="1">
-        <v>-15</v>
-      </c>
-      <c r="F16" s="1">
-        <v>-20</v>
+      <c r="E16">
+        <v>-13</v>
+      </c>
+      <c r="F16">
+        <v>-18</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1">
@@ -2022,8 +2022,8 @@
         <v>1200</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="3"/>
-        <v>24.666666666666668</v>
+        <f>C16-D16*20-E16*0.8-F16*0.6-H16*5+(U16-22)*2.5+P16/300+S16*5</f>
+        <v>21.866666666666664</v>
       </c>
       <c r="P16">
         <v>950</v>
@@ -2042,7 +2042,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C11:U16">
+  <conditionalFormatting sqref="C11:D16 G11:U16">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>C11&lt;&gt;C3</formula>
     </cfRule>

--- a/changes/9mm-ammo.xlsx
+++ b/changes/9mm-ammo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA975239-31A9-4883-85E6-2D9A5682A5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069E4F36-BAE5-4485-B783-C58D59C37D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:AJ16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AE23" sqref="AE23"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,8 +1166,8 @@
         <v>2000</v>
       </c>
       <c r="N3" s="1">
-        <f>C3-D3*20-E3*0.8-F3*0.6-H3*5+(U3-22)*2.5+P3/300+S3*5</f>
-        <v>28.466666666666669</v>
+        <f>C3-D3*20-E3*0.8-F3*0.6-H3*5+(U3-22)*2.5+P3/300+S3*2</f>
+        <v>28.406666666666666</v>
       </c>
       <c r="P3">
         <v>1100</v>
@@ -1259,8 +1259,8 @@
         <v>750</v>
       </c>
       <c r="N4" s="1">
-        <f>C4-D4*20-E4*0.8-F4*0.6-H4*5+(U4-22)*2.5+P4/300+S4*5</f>
-        <v>5.7666666666666675</v>
+        <f t="shared" ref="N4:N8" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+(U4-22)*2.5+P4/300+S4*2</f>
+        <v>5.4666666666666677</v>
       </c>
       <c r="P4">
         <v>1250</v>
@@ -1324,8 +1324,8 @@
         <v>0</v>
       </c>
       <c r="N5" s="1">
-        <f>C5-D5*20-E5*0.8-F5*0.6-H5*5+(U5-22)*2.5+P5/300+S5*5</f>
-        <v>10.7</v>
+        <f t="shared" si="0"/>
+        <v>10.1</v>
       </c>
       <c r="P5">
         <v>1260</v>
@@ -1419,8 +1419,8 @@
         <v>1500</v>
       </c>
       <c r="N6" s="1">
-        <f>C6-D6*20-E6*0.8-F6*0.6-H6*5+(U6-22)*2.5+P6/300+S6*5</f>
-        <v>1.5000000000000002</v>
+        <f t="shared" si="0"/>
+        <v>1.2300000000000002</v>
       </c>
       <c r="P6">
         <v>1260</v>
@@ -1462,7 +1462,7 @@
         <v>951</v>
       </c>
       <c r="AD6">
-        <f t="shared" ref="AD6:AD8" si="0">(Y6-AC6)/Y6</f>
+        <f t="shared" ref="AD6:AD8" si="1">(Y6-AC6)/Y6</f>
         <v>0.12752293577981652</v>
       </c>
       <c r="AE6">
@@ -1481,7 +1481,7 @@
         <v>249</v>
       </c>
       <c r="AJ6">
-        <f t="shared" ref="AJ6:AJ8" si="1">(AE6-AI6)/AE6</f>
+        <f t="shared" ref="AJ6:AJ8" si="2">(AE6-AI6)/AE6</f>
         <v>0.23853211009174313</v>
       </c>
     </row>
@@ -1514,8 +1514,8 @@
         <v>600</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" ref="N7:N8" si="2">C7-D7*20-E7*0.8-F7*0.6-H7*5+(U7-22)*2.5+P7/300+S7*5</f>
-        <v>19.983333333333334</v>
+        <f t="shared" si="0"/>
+        <v>19.653333333333332</v>
       </c>
       <c r="P7">
         <v>1150</v>
@@ -1557,7 +1557,7 @@
         <v>973</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2153225806451613</v>
       </c>
       <c r="AE7">
@@ -1576,7 +1576,7 @@
         <v>210</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.38416422287390029</v>
       </c>
     </row>
@@ -1611,8 +1611,8 @@
         <v>1000</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="2"/>
-        <v>27.6</v>
+        <f t="shared" si="0"/>
+        <v>27.54</v>
       </c>
       <c r="P8">
         <v>1050</v>
@@ -1645,7 +1645,7 @@
         <v>850</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AE8">
@@ -1655,7 +1655,7 @@
         <v>236</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1752,8 +1752,8 @@
         <v>2000</v>
       </c>
       <c r="N11" s="1">
-        <f>C11-D11*20-E11*0.8-F11*0.6-H11*5+(U11-22)*2.5+P11/300+S11*5</f>
-        <v>27.983333333333331</v>
+        <f>C11-D11*20-E11*0.8-F11*0.6-H11*5+(U11-22)*2.5+P11/300+S11*2</f>
+        <v>27.833333333333332</v>
       </c>
       <c r="P11">
         <v>1150</v>
@@ -1806,8 +1806,8 @@
         <v>750</v>
       </c>
       <c r="N12" s="1">
-        <f>C12-D12*20-E12*0.8-F12*0.6-H12*5+(U12-22)*2.5+P12/300+S12*5</f>
-        <v>21.916666666666668</v>
+        <f t="shared" ref="N12:N16" si="3">C12-D12*20-E12*0.8-F12*0.6-H12*5+(U12-22)*2.5+P12/300+S12*2</f>
+        <v>21.556666666666665</v>
       </c>
       <c r="P12">
         <v>1100</v>
@@ -1860,8 +1860,8 @@
         <v>0</v>
       </c>
       <c r="N13" s="1">
-        <f>C13-D13*20-E13*0.8-F13*0.6-H13*5+(U13-22)*2.5+P13/300+S13*5</f>
-        <v>21.066666666666666</v>
+        <f t="shared" si="3"/>
+        <v>20.466666666666665</v>
       </c>
       <c r="P13">
         <v>1250</v>
@@ -1914,8 +1914,8 @@
         <v>1500</v>
       </c>
       <c r="N14" s="1">
-        <f>C14-D14*20-E14*0.8-F14*0.6-H14*5+(U14-22)*2.5+P14/300+S14*5</f>
-        <v>22.216666666666665</v>
+        <f t="shared" si="3"/>
+        <v>21.676666666666666</v>
       </c>
       <c r="P14">
         <v>1100</v>
@@ -1968,8 +1968,8 @@
         <v>600</v>
       </c>
       <c r="N15" s="1">
-        <f>C15-D15*20-E15*0.8-F15*0.6-H15*5+(U15-22)*2.5+P15/300+S15*5</f>
-        <v>22.166666666666671</v>
+        <f t="shared" si="3"/>
+        <v>22.106666666666669</v>
       </c>
       <c r="P15">
         <v>1250</v>
@@ -2022,8 +2022,8 @@
         <v>1200</v>
       </c>
       <c r="N16" s="1">
-        <f>C16-D16*20-E16*0.8-F16*0.6-H16*5+(U16-22)*2.5+P16/300+S16*5</f>
-        <v>21.866666666666664</v>
+        <f t="shared" si="3"/>
+        <v>21.626666666666665</v>
       </c>
       <c r="P16">
         <v>950</v>
